--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H100_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4773413897280967</v>
+        <v>0.4803625377643505</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.09282411355920249</v>
+        <v>0.0800297214843063</v>
       </c>
       <c r="J2" t="n">
-        <v>1211.545063040295</v>
+        <v>1045.741338335928</v>
       </c>
       <c r="K2" t="n">
-        <v>1905047.716081044</v>
+        <v>1479328.885636094</v>
       </c>
       <c r="L2" t="n">
-        <v>1380.234659788343</v>
+        <v>1216.276648479323</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6438638815503157</v>
+        <v>0.7234492119049249</v>
       </c>
     </row>
   </sheetData>
